--- a/data/trans_dic/P2C_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R2-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,63%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,23%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,01%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,66%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>15,73; 22,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>30,49; 39,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>18,57; 27,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>3,68; 11,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>17,5; 24,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>41,12; 50,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>27,79; 37,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>5,39; 14,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>17,65; 22,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>36,67; 43,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>24,42; 30,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>5,37; 10,97</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,27%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,35%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,17%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,57%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,95%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,68%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,28%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>26,23; 33,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>35,48; 42,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>33,81; 42,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>8,31; 15,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>47,09; 55,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>62,28; 70,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>53,92; 61,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>11,27; 22,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>36,87; 42,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>49,02; 54,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>44,76; 50,51</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>11,89; 18,29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,3%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,21%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,62%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,94%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,57%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,74%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,19%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,96%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,65%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,06%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>50,86; 59,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>70,63; 77,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>51,38; 59,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>16,89; 24,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>54,89; 62,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>78,18; 84,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>61,95; 69,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>15,87; 25,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>54,26; 59,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>75,42; 80,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>57,85; 63,21</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>17,96; 23,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,65%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,8%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,73%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,03%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,7%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>28,26; 36,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>48,4; 56,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>27,05; 34,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>4,01; 14,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>21,48; 29,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>40,31; 49,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>27,86; 34,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>11,27; 16,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>26,19; 31,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>45,71; 51,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>28,39; 34,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>7,15; 14,5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,66%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,9%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,63%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,45%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,02%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,48%</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1284,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>8,52; 15,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>22,84; 31,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>9,88; 16,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>6,7; 11,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>14,96; 22,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>19,3; 28,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>11,54; 18,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>8,48; 12,49</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>12,92; 18,04</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>22,26; 28,39</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>11,7; 16,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>8,0; 11,02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,52%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,43%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,28%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,81%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,02%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>7,28; 14,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>18,77; 28,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>8,09; 15,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>6,54; 11,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>13,62; 21,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>21,53; 30,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>13,23; 21,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>11,05; 78,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>11,5; 17,0</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>21,75; 28,59</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>11,83; 17,14</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>9,66; 66,7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,09%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,65%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,94%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,31%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,64%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,82%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,73%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,84%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,9%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,54%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,03; 28,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>30,01; 43,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>22,02; 31,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>17,63; 25,54</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>18,29; 28,35</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>42,07; 52,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>31,07; 41,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>28,48; 34,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>19,09; 26,44</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>38,5; 47,01</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>28,9; 36,9</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>25,17; 30,03</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>29,16%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>44,78%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>31,31%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>11,94%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>34,53%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>51,59%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>38,75%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>21,37%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>31,89%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>48,25%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>35,11%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>16,82%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>27,69; 30,79</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>43,01; 46,55</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>29,68; 32,76</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9,17; 13,41</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>32,84; 36,14</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>49,9; 53,26</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>37,04; 40,37</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>16,36; 34,87</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>30,74; 33,06</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>47,08; 49,53</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>33,89; 36,32</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>13,87; 24,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P2C_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,73; 22,61</t>
+          <t>15,5; 22,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,49; 39,36</t>
+          <t>30,16; 39,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,57; 27,42</t>
+          <t>18,86; 27,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 11,14</t>
+          <t>3,65; 11,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,5; 24,96</t>
+          <t>17,65; 24,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,12; 50,8</t>
+          <t>40,79; 50,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,79; 37,0</t>
+          <t>27,89; 37,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,39; 14,13</t>
+          <t>5,96; 14,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,65; 22,74</t>
+          <t>17,42; 22,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>36,67; 43,28</t>
+          <t>36,68; 43,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,42; 30,23</t>
+          <t>24,49; 30,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,97</t>
+          <t>5,26; 10,68</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>26,23; 33,22</t>
+          <t>26,37; 33,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,48; 42,97</t>
+          <t>35,47; 43,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,81; 42,35</t>
+          <t>34,3; 42,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,31; 15,82</t>
+          <t>8,3; 16,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,09; 55,39</t>
+          <t>47,05; 55,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,28; 70,25</t>
+          <t>61,97; 70,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,92; 61,89</t>
+          <t>54,13; 61,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 22,9</t>
+          <t>11,1; 22,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>36,87; 42,34</t>
+          <t>36,92; 42,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>49,02; 54,67</t>
+          <t>49,3; 55,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>44,76; 50,51</t>
+          <t>44,75; 50,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,89; 18,29</t>
+          <t>11,52; 18,44</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>50,86; 59,19</t>
+          <t>51,55; 59,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>70,63; 77,44</t>
+          <t>70,54; 77,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,38; 59,16</t>
+          <t>51,5; 59,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,89; 24,08</t>
+          <t>16,88; 24,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,89; 62,57</t>
+          <t>55,32; 63,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>78,18; 84,42</t>
+          <t>78,33; 84,44</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>61,95; 69,09</t>
+          <t>62,21; 69,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,87; 25,35</t>
+          <t>16,5; 25,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>54,26; 59,97</t>
+          <t>54,41; 60,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>75,42; 80,07</t>
+          <t>75,57; 80,25</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>57,85; 63,21</t>
+          <t>58,03; 63,3</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,96; 23,76</t>
+          <t>17,8; 23,59</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>28,26; 36,86</t>
+          <t>28,33; 36,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>48,4; 56,86</t>
+          <t>48,29; 56,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,05; 34,96</t>
+          <t>26,99; 34,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,01; 14,68</t>
+          <t>4,54; 14,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,48; 29,46</t>
+          <t>21,59; 29,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,31; 49,14</t>
+          <t>40,46; 49,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,86; 34,85</t>
+          <t>27,47; 34,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,27; 16,09</t>
+          <t>11,33; 16,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>26,19; 31,58</t>
+          <t>26,01; 31,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>45,71; 51,86</t>
+          <t>45,64; 51,68</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>28,39; 34,0</t>
+          <t>28,65; 33,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 14,5</t>
+          <t>6,81; 14,45</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,52; 15,5</t>
+          <t>8,54; 15,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,84; 31,73</t>
+          <t>22,79; 31,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,88; 16,48</t>
+          <t>10,0; 16,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,7; 11,07</t>
+          <t>6,83; 11,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,96; 22,38</t>
+          <t>14,75; 22,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,3; 28,11</t>
+          <t>19,57; 27,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,54; 18,42</t>
+          <t>11,58; 17,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,48; 12,49</t>
+          <t>8,62; 12,48</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12,92; 18,04</t>
+          <t>12,84; 17,94</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>22,26; 28,39</t>
+          <t>21,99; 28,25</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,7; 16,19</t>
+          <t>11,5; 16,11</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,0; 11,02</t>
+          <t>8,06; 10,98</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,28; 14,63</t>
+          <t>7,6; 14,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,77; 28,89</t>
+          <t>18,44; 28,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,09; 15,0</t>
+          <t>8,33; 15,35</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,54; 11,25</t>
+          <t>6,3; 10,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>13,62; 21,21</t>
+          <t>13,88; 21,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,53; 30,87</t>
+          <t>21,24; 30,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,23; 21,44</t>
+          <t>12,95; 21,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,05; 78,64</t>
+          <t>10,94; 75,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>11,5; 17,0</t>
+          <t>11,73; 16,94</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21,75; 28,59</t>
+          <t>21,57; 28,51</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,83; 17,14</t>
+          <t>11,86; 17,2</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,66; 66,7</t>
+          <t>9,62; 61,1</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,03; 28,15</t>
+          <t>17,05; 27,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>30,01; 43,5</t>
+          <t>30,18; 42,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,02; 31,82</t>
+          <t>22,22; 32,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,63; 25,54</t>
+          <t>17,98; 25,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,29; 28,35</t>
+          <t>18,27; 28,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>42,07; 52,49</t>
+          <t>41,71; 52,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>31,07; 41,74</t>
+          <t>31,75; 42,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>28,48; 34,9</t>
+          <t>28,64; 34,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>19,09; 26,44</t>
+          <t>19,18; 26,28</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>38,5; 47,01</t>
+          <t>38,93; 47,47</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>28,9; 36,9</t>
+          <t>29,04; 36,84</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>25,17; 30,03</t>
+          <t>25,23; 30,32</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>27,69; 30,79</t>
+          <t>27,44; 30,83</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>43,01; 46,55</t>
+          <t>43,15; 46,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,68; 32,76</t>
+          <t>29,7; 32,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,17; 13,41</t>
+          <t>9,61; 13,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>32,84; 36,14</t>
+          <t>32,87; 36,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>49,9; 53,26</t>
+          <t>49,93; 53,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>37,04; 40,37</t>
+          <t>37,04; 40,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>16,36; 34,87</t>
+          <t>16,39; 36,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,74; 33,06</t>
+          <t>30,68; 32,91</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>47,08; 49,53</t>
+          <t>46,82; 49,42</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>33,89; 36,32</t>
+          <t>33,91; 36,26</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>13,87; 24,37</t>
+          <t>13,87; 26,0</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con al menos un miembro que requiere cuidados y estos son no remunerados</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>93995</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>157283</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>96808</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>25623</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>98370</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>195789</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>127571</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>29028</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>192365</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>353073</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>224379</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>54651</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>76604; 112099</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>136984; 178580</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>79095; 115640</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14612; 45108</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>82496; 116174</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>175486; 216974</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>110390; 147077</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>18657; 44558</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>167467; 218690</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>324384; 385076</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>199608; 248822</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>37520; 76195</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>638</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>217842</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>269068</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>224591</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>49953</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>320712</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>404915</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>325689</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>93048</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>538554</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>673983</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>550280</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>143001</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>193929; 244548</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>243738; 296298</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>202533; 248293</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>35169; 70795</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>294287; 346783</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>378169; 427622</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>305024; 345923</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>56835; 116335</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>502416; 575535</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>639565; 713908</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>516464; 583412</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>107795; 172518</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1036</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>353168</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>505977</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>372152</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>108561</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>406510</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>579821</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>434827</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>129079</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>759678</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1085797</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>806978</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>237640</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>329247; 379604</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>480962; 528066</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>344588; 397978</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>90542; 131671</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>381548; 435437</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>556790; 600242</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>411477; 456837</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>97672; 148149</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>722730; 801842</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1052445; 1117603</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>772035; 842197</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>200869; 266166</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>167718</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>323625</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>200138</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>88710</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>130257</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>276116</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>201782</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>98556</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>297975</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>599740</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>401921</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>187266</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>147052; 189707</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>296807; 348496</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>174350; 223628</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>40318; 132132</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>111338; 152647</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>249310; 302975</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>178298; 224411</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>80750; 114888</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>269140; 330493</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>561705; 636093</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>371093; 436240</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>108971; 231340</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>45537</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>114480</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>61628</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>48449</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>75565</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>104994</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>73052</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>56686</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>121102</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>219474</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>134680</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>105135</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>33026; 60252</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>97884; 135774</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>47780; 79315</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>38326; 63820</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>59586; 91686</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>87615; 124815</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>57535; 88806</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>47204; 68362</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>101502; 141841</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>192866; 247794</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>112083; 157071</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>89342; 121823</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>30809</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>72588</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>38134</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>31373</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>59912</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>92073</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>63722</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>252021</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>90722</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>164662</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>101856</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>283394</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>22223; 43251</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>57116; 89515</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>27850; 51326</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>23211; 40300</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>47602; 73804</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>75201; 109180</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>48909; 81052</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>66540; 459184</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>74537; 107629</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>143181; 189235</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>84468; 122490</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>93939; 596677</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>46364</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>91566</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>69239</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>60264</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>75597</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>182133</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>146962</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>134874</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>121961</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>273699</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>216201</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>195138</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>35779; 58734</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>75401; 107285</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>57106; 82676</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>50852; 72249</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>61002; 93560</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>162253; 203499</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>127043; 170474</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>121947; 148074</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>104281; 142929</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>248671; 303228</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>190812; 242130</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>178807; 214862</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1444</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1011</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1707</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>2055</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>3151</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>2327</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1428</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>955433</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1534588</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1062691</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>412934</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1166924</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1835841</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1373604</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>793292</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>2122357</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>3370428</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2436295</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1206225</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>899229; 1010203</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1478659; 1593946</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1007995; 1110714</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>332435; 462865</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1110807; 1218215</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1776561; 1901319</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1312864; 1434726</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>608615; 1348448</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>2042280; 2190236</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>3270192; 3452205</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>2353086; 2516177</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>995109; 1864797</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>